--- a/story/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/level_act13d5_02_end.xlsx
+++ b/story/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/level_act13d5_02_end.xlsx
@@ -2084,7 +2084,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="플라스틱의 기사"]  …….앞으로 십 분 정도 남았나.
+    <t xml:space="preserve">[name="플라스틱의 기사"]  ……앞으로 십 분 정도 남았나.
 </t>
   </si>
   <si>
@@ -2156,7 +2156,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="마리아"]  음……. 그러니까, 방법이 없다는 거네?
+    <t xml:space="preserve">[name="마리아"]  음…… 웬일로 진짜 취했대?
 </t>
   </si>
   <si>
@@ -2284,7 +2284,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="마리아"]  로어 가드에 갑옷의 발열 문제까진 생각하지 않았나 보지?
+    <t xml:space="preserve">[name="마리아"]  로어 가드에서 갑옷의 발열 문제까진 생각하지 않았나 보지?
 </t>
   </si>
   <si>
@@ -2332,7 +2332,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="빅마우스 모브"]  빛입니다! 갑자기 나타난 빛이 경기장을 가득 메우고 있습니다! 지금 이렇게 눈이 부신 여러분께 추천드리는 제품은 레이시언 파이오니아 시리즈의 새로운 선글라스!
+    <t xml:space="preserve">[name="빅마우스 모브"]  빛입니다! 갑자기 나타난 빛이 경기장을 가득 메우고 있습니다! 지금 이렇게 눈이 부신 여러분께 추천드리는 제품은 레이시언 파이오니어 시리즈의 새로운 선글라스!
 </t>
   </si>
   <si>
@@ -2440,7 +2440,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="마리아"]  미안해요!
+    <t xml:space="preserve">[name="마리아"]  미안!
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/level_act13d5_02_end.xlsx
+++ b/story/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/level_act13d5_02_end.xlsx
@@ -1356,7 +1356,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  He stops! He shoots! And then he’s on the move again! This is his “Plastic Rhythm”!   
+    <t xml:space="preserve">[name="Greatmouth Mob"]  He stops! He shoots! And then he’s on the move again! This is his 'Plastic Rhythm'!   
 </t>
   </si>
   <si>
@@ -1432,7 +1432,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="??? "]  Hey, take a look over there. In the front row. “Whislash” Zofia. 
+    <t xml:space="preserve">[name="??? "]  Hey, take a look over there. In the front row. 'Whislash' Zofia. 
 </t>
   </si>
   <si>
@@ -1580,7 +1580,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  She’s charging! “Plastic” Szewczyk has been toying with Nearl so far this entire match, but she’s finally charging him for the first time! 
+    <t xml:space="preserve">[name="Greatmouth Mob"]  She’s charging! 'Plastic' Szewczyk has been toying with Nearl so far this entire match, but she’s finally charging him for the first time! 
 </t>
   </si>
   <si>
@@ -1676,7 +1676,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Plastic Knight"]  You don’t know when to give up, do you? Hasn't “Whislash” taught you not to make chase when you have the lower hand in speed?
+    <t xml:space="preserve">[name="Plastic Knight"]  You don’t know when to give up, do you? Hasn't 'Whislash' taught you not to make chase when you have the lower hand in speed?
 </t>
   </si>
   <si>
@@ -1944,7 +1944,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  An independent, untitled knight managed to defeat the Roar K.C.’s vanguard! It looks like Maria Nearl’s Originium Arts are a force to be reckoned with! She defeated the “Plastic” Szewczyk, through pure skill! 
+    <t xml:space="preserve">[name="Greatmouth Mob"]  An independent, untitled knight managed to defeat the Roar K.C.’s vanguard! It looks like Maria Nearl’s Originium Arts are a force to be reckoned with! She defeated the 'Plastic' Szewczyk, through pure skill! 
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/level_act13d5_02_end.xlsx
+++ b/story/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/level_act13d5_02_end.xlsx
@@ -1320,23 +1320,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  Before this match began, who could’ve known that this fight—this standoff between the renowned Nearl family and the Plastic Knight—would’ve turned out like this?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  Maria Nearl! The girl who inherited the Nearl name! Who could’ve seen this coming—!? 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  She’s completely cornered by Szewczyk! And she’s got no way to turn the tables! 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  That won’t do! Nearl! Do you know how much money our audience has bet on you just because of your name?!   
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  Uh... Say that again? Oh, it’s not actually that much, going by where the the odds stand? Hey now, you should all have a little more faith in the girl! Isn’t her face worth something to you?!    
+    <t xml:space="preserve">[name="Greatmouth Mob"]  Before this match began, who could've known that this fight—this standoff between the renowned Nearl family and the Plastic Knight—would've turned out like this?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Greatmouth Mob"]  Maria Nearl! The girl who inherited the Nearl name! Who could've seen this coming—!? 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Greatmouth Mob"]  She's completely cornered by Szewczyk! And she's got no way to turn the tables! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Greatmouth Mob"]  That won't do! Nearl! Do you know how much money our audience has bet on you just because of your name?!   
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Greatmouth Mob"]  Uh... Say that again? Oh, it's not actually that much, going by where the the odds stand? Hey now, you should all have a little more faith in the girl! Isn't her face worth something to you?!    
 </t>
   </si>
   <si>
@@ -1344,7 +1344,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Plastic Knight"]  I was expecting something on Zofia or the Radiant Knight’s level, but is this all you’ve got...?
+    <t xml:space="preserve">[name="Plastic Knight"]  I was expecting something on Zofia or the Radiant Knight's level, but is this all you've got...?
 </t>
   </si>
   <si>
@@ -1352,19 +1352,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  That’s the Roar Guards’ old war horse! He’s using the artificial environment and his speed to his advantage! The poor girl’s got nowhere to run!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  He stops! He shoots! And then he’s on the move again! This is his 'Plastic Rhythm'!   
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Maria"]  (I-I can’t see his movements! Why? He’s not even as fast as Zofia—)  
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Maria"]  (He stopped! I’ve gotta block—!) 
+    <t xml:space="preserve">[name="Greatmouth Mob"]  That's the Roar Guards' old war horse! He's using the artificial environment and his speed to his advantage! The poor girl's got nowhere to run!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Greatmouth Mob"]  He stops! He shoots! And then he's on the move again! This is his 'Plastic Rhythm'!   
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Maria"]  (I-I can't see his movements! Why? He's not even as fast as Zofia—)  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Maria"]  (He stopped! I've gotta block—!) 
 </t>
   </si>
   <si>
@@ -1380,27 +1380,27 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  Szewczyk just hopped on the wall there and made a beautiful burst of shots. My god, if he landed those shots where he really wanted them, we’d have to cut the broadcast short! That was close! 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  Even though he’s been hit a few times already, his armor is so tough, there’s absolutely no sign of damage at all! Yet he’s able to move around in it so quickly! Astounding! 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  You see that, everyone? That’s the latest product from the Roar Guards! The Jack 2 Special High Performance Rubber Paste!  
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  This fantastic product can be yours today! But wait! We’re even handing out 5% off coupons at the front of the arena right now! Be sure not to miss this opportunity!  
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="??? "]  So... That’s Nearl?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="??? "]  Hold on, is she really the Radiant Knight’s sister?
+    <t xml:space="preserve">[name="Greatmouth Mob"]  Szewczyk just hopped on the wall there and made a beautiful burst of shots. My god, if he landed those shots where he really wanted them, we'd have to cut the broadcast short! That was close! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Greatmouth Mob"]  Even though he's been hit a few times already, his armor is so tough, there's absolutely no sign of damage at all! Yet he's able to move around in it so quickly! Astounding! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Greatmouth Mob"]  You see that, everyone? That's the latest product from the Roar Guards! The Jack 2 Special High Performance Rubber Paste!  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Greatmouth Mob"]  This fantastic product can be yours today! But wait! We're even handing out 5% off coupons at the front of the arena right now! Be sure not to miss this opportunity!  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="??? "]  So... That's Nearl?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="??? "]  Hold on, is she really the Radiant Knight's sister?
 </t>
   </si>
   <si>
@@ -1412,7 +1412,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="??? "]  Me? Well... Let’s keep watching a little longer. We paid good money for our tickets after all. 
+    <t xml:space="preserve">[name="??? "]  Me? Well... Let's keep watching a little longer. We paid good money for our tickets after all. 
 </t>
   </si>
   <si>
@@ -1420,15 +1420,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="??? "]  I don’t understand how he manages to stir up the crowd when he commentates like that... And those advertisements... Is anyone actually running out to buy anything he’s advertising?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="??? "]  There’s probably a few.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="??? "]  After all, letting viewers put everything off their minds and go with the crowd is what these knight competitions do best, wouldn’t you agree?
+    <t xml:space="preserve">[name="??? "]  I don't understand how he manages to stir up the crowd when he commentates like that... And those advertisements... Is anyone actually running out to buy anything he's advertising?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="??? "]  There's probably a few.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="??? "]  After all, letting viewers put everything off their minds and go with the crowd is what these knight competitions do best, wouldn't you agree?
 </t>
   </si>
   <si>
@@ -1436,7 +1436,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="??? "]  Not just her. There’s more over there... Some lesser-known knights. 
+    <t xml:space="preserve">[name="??? "]  Not just her. There's more over there... Some lesser-known knights. 
 </t>
   </si>
   <si>
@@ -1444,7 +1444,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Plastic Knight"]  Looks like your luck hasn’t run out yet. If I didn’t have to drag this out, you would’ve begged me to spare your life long ago!
+    <t xml:space="preserve">[name="Plastic Knight"]  Looks like your luck hasn't run out yet. If I didn't have to drag this out, you would've begged me to spare your life long ago!
 </t>
   </si>
   <si>
@@ -1456,23 +1456,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Plastic Knight"]  You don’t know the rules here. The judges aren’t going to stop us until I have arrows sticking through all your arms and legs.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Plastic Knight"]  You don’t need to do this. Throw in the towel.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Maria"]  I-I can’t give up...!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Plastic Knight"]  Well, if you’ve already dug your heels in... You have her eyes, but, other than that, you’re nothing.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Plastic Knight"]  Very well... Let’s see how long you can keep this up.
+    <t xml:space="preserve">[name="Plastic Knight"]  You don't know the rules here. The judges aren't going to stop us until I have arrows sticking through all your arms and legs.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Plastic Knight"]  You don't need to do this. Throw in the towel.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Maria"]  I-I can't give up...!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Plastic Knight"]  Well, if you've already dug your heels in... You have her eyes, but, other than that, you're nothing.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Plastic Knight"]  Very well... Let's see how long you can keep this up.
 </t>
   </si>
   <si>
@@ -1484,7 +1484,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zofia"]  No one’s going to try to be polite and take you head-on.
+    <t xml:space="preserve">[name="Zofia"]  No one's going to try to be polite and take you head-on.
 </t>
   </si>
   <si>
@@ -1496,7 +1496,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zofia"]  That’s right, and that’s where the problem is. There is no way you can remember the weaknesses of each and every one of the knights in the Kazimierz Major, but most if not all of them have their eyes on you.
+    <t xml:space="preserve">[name="Zofia"]  That's right, and that's where the problem is. There is no way you can remember the weaknesses of each and every one of the knights in the Kazimierz Major, but most if not all of them have their eyes on you.
 </t>
   </si>
   <si>
@@ -1504,7 +1504,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zofia"]  There isn’t a one-size-fits-all solution when it comes to winning the competitions, but if we have to come up with something...
+    <t xml:space="preserve">[name="Zofia"]  There isn't a one-size-fits-all solution when it comes to winning the competitions, but if we have to come up with something...
 </t>
   </si>
   <si>
@@ -1512,7 +1512,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Maria"]  So, you mean... you’ve got nothing?
+    <t xml:space="preserve">[name="Maria"]  So, you mean... you've got nothing?
 </t>
   </si>
   <si>
@@ -1520,11 +1520,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zofia"]  Observe and think. You don’t come up with solutions before you actually face the challenges. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Zofia"]  You need to analyze the situation within an extremely short amount of time and come up with the appropriate response. That’s not an easy thing to do.
+    <t xml:space="preserve">[name="Zofia"]  Observe and think. You don't come up with solutions before you actually face the challenges. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Zofia"]  You need to analyze the situation within an extremely short amount of time and come up with the appropriate response. That's not an easy thing to do.
 </t>
   </si>
   <si>
@@ -1540,7 +1540,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  The vote count hasn’t changed! Szewczyk still has the advantage, and an overwhelming one at that! 
+    <t xml:space="preserve">[name="Greatmouth Mob"]  The vote count hasn't changed! Szewczyk still has the advantage, and an overwhelming one at that! 
 </t>
   </si>
   <si>
@@ -1572,31 +1572,31 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Maria"]  (It enhances his mobility... No, there’s more to it than that... but this model...)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Maria"]  ...Let’s give it a try.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  She’s charging! 'Plastic' Szewczyk has been toying with Nearl so far this entire match, but she’s finally charging him for the first time! 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  She dodged the flames burning through the crevices and the artificial frost! She’s fast! Very fast—But Szewczyk is still not moving away! Is he going to fight her head on?!  
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Plastic Knight"]  It’s suicide for an archer to fight a swordsman head on—
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Maria"]  You won’t get away—!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Plastic Knight"]  I’m not going anywhere!
+    <t xml:space="preserve">[name="Maria"]  (It enhances his mobility... No, there's more to it than that... but this model...)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Maria"]  ...Let's give it a try.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Greatmouth Mob"]  She's charging! 'Plastic' Szewczyk has been toying with Nearl so far this entire match, but she's finally charging him for the first time! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Greatmouth Mob"]  She dodged the flames burning through the crevices and the artificial frost! She's fast! Very fast—But Szewczyk is still not moving away! Is he going to fight her head on?!  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Plastic Knight"]  It's suicide for an archer to fight a swordsman head on—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Maria"]  You won't get away—!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Plastic Knight"]  I'm not going anywhere!
 </t>
   </si>
   <si>
@@ -1604,7 +1604,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">She steps atop her opponent’s armor and flips into the air. Naturally, Szewczyk did not expect the confrontation to be this friendly—
+    <t xml:space="preserve">She steps atop her opponent's armor and flips into the air. Naturally, Szewczyk did not expect the confrontation to be this friendly—
 </t>
   </si>
   <si>
@@ -1612,19 +1612,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  What’s this? Would you believe it?! We aren’t just getting a knight match for our money today; we’ve got a circus show going on here!   
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  Maria has finally closed in on Szewczyk, but she hasn’t attacked even once! Is this her idea of a taunt?! 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Zofia"]  ...It’s not that she’s not attacking; she can’t attack. If she didn’t dodge that, her left arm would’ve been crippled by now.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Zofia"]  Plastic’s trying to drag the fight on. He’s trying to get sponsorships by putting on a show... *sigh*.
+    <t xml:space="preserve">[name="Greatmouth Mob"]  What's this? Would you believe it?! We aren't just getting a knight match for our money today; we've got a circus show going on here!   
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Greatmouth Mob"]  Maria has finally closed in on Szewczyk, but she hasn't attacked even once! Is this her idea of a taunt?! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Zofia"]  ...It's not that she's not attacking; she can't attack. If she didn't dodge that, her left arm would've been crippled by now.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Zofia"]  Plastic's trying to drag the fight on. He's trying to get sponsorships by putting on a show... *sigh*.
 </t>
   </si>
   <si>
@@ -1636,19 +1636,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Maria"]  It’s getting a little hot in here, isn’t it... Mr. Szewczyk?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Maria"]  Haven’t the Roar Guards thought out the ventilation issues in that new armor you’re wearing?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Plastic Knight"]  ...That’s something for the craftsmen to worry about, not for two dueling knights to have a discussion over.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Maria"]  (High performance, lightweight... It’s obviously trying to replicate that high-end Victorian workmanship and the Originium skeletal reinforcement lining technology from Columbia...) 
+    <t xml:space="preserve">[name="Maria"]  It's getting a little hot in here, isn't it... Mr. Szewczyk?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Maria"]  Haven't the Roar Guards thought out the ventilation issues in that new armor you're wearing?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Plastic Knight"]  ...That's something for the craftsmen to worry about, not for two dueling knights to have a discussion over.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Maria"]  (High performance, lightweight... It's obviously trying to replicate that high-end Victorian workmanship and the Originium skeletal reinforcement lining technology from Columbia...) 
 </t>
   </si>
   <si>
@@ -1660,7 +1660,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Maria"]  (He moves and shoots, then repeats. I know his pattern, but I can’t match his speed.) 
+    <t xml:space="preserve">[name="Maria"]  (He moves and shoots, then repeats. I know his pattern, but I can't match his speed.) 
 </t>
   </si>
   <si>
@@ -1668,15 +1668,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  We had a little interlude just now, but both sides have regained their composure! They pulled away from each other, and we’re back on track—Hang on! 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  Maria’s not hesitating at all! She took off right away and she’s trying to match Szewczyk’s speed! But! There’s still some difference between them!   
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Plastic Knight"]  You don’t know when to give up, do you? Hasn't 'Whislash' taught you not to make chase when you have the lower hand in speed?
+    <t xml:space="preserve">[name="Greatmouth Mob"]  We had a little interlude just now, but both sides have regained their composure! They pulled away from each other, and we're back on track—Hang on! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Greatmouth Mob"]  Maria's not hesitating at all! She took off right away and she's trying to match Szewczyk's speed! But! There's still some difference between them!   
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Plastic Knight"]  You don't know when to give up, do you? Hasn't 'Whislash' taught you not to make chase when you have the lower hand in speed?
 </t>
   </si>
   <si>
@@ -1688,11 +1688,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  A flash! The stadium is suddenly filled with a blinding light—Let’s take this opportunity to look at all the advantages of Raythean’s latest sunglasses, part of its Pioneer line of apparel! 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  (What? Advertisements? Who gives a crap when they’ve already thrown all that money on this?)   
+    <t xml:space="preserve">[name="Greatmouth Mob"]  A flash! The stadium is suddenly filled with a blinding light—Let's take this opportunity to look at all the advantages of Raythean's latest sunglasses, part of its Pioneer line of apparel! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Greatmouth Mob"]  (What? Advertisements? Who gives a crap when they've already thrown all that money on this?)   
 </t>
   </si>
   <si>
@@ -1700,11 +1700,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Plastic Knight"]  She’s not attacking—What—
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Maria"]  (He’s not attacking or moving! Again!)  
+    <t xml:space="preserve">[name="Plastic Knight"]  She's not attacking—What—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Maria"]  (He's not attacking or moving! Again!)  
 </t>
   </si>
   <si>
@@ -1716,7 +1716,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  He blocked it! Szewczyk, a crossbowman, managed to block Maria’s attack without even breaking a sweat! 
+    <t xml:space="preserve">[name="Greatmouth Mob"]  He blocked it! Szewczyk, a crossbowman, managed to block Maria's attack without even breaking a sweat! 
 </t>
   </si>
   <si>
@@ -1732,15 +1732,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Maria"]  Mr. Szewczyk, how’s the automatic cooling system doing for you during combat?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Plastic Knight"]  Well, color me surprised... If you figured that out so quickly, maybe you should’ve been a mechanic, not a knight.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Maria"]  —Mr. Szewczyk, you’re a really strong knight. Your speed and techniques are impeccable.
+    <t xml:space="preserve">[name="Maria"]  Mr. Szewczyk, how's the automatic cooling system doing for you during combat?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Plastic Knight"]  Well, color me surprised... If you figured that out so quickly, maybe you should've been a mechanic, not a knight.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Maria"]  —Mr. Szewczyk, you're a really strong knight. Your speed and techniques are impeccable.
 </t>
   </si>
   <si>
@@ -1748,7 +1748,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Plastic Knight"]  ...None of your business, and I suggest you stop underestimating the Roar Guards’ technological prowess.
+    <t xml:space="preserve">[name="Plastic Knight"]  ...None of your business, and I suggest you stop underestimating the Roar Guards' technological prowess.
 </t>
   </si>
   <si>
@@ -1756,15 +1756,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  Ohh?! Maria’s willingly pulled herself back! What’s the meaning of this?! What were the two of them talking about?!   
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  I’m sure our audience is curious about that, too. I’ve always been an advocate for giving the knights mics—Who doesn’t want to listen in on our contestants trash-talking each other?! 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="??? "]  Well, the crowd’s getting all fired up again.
+    <t xml:space="preserve">[name="Greatmouth Mob"]  Ohh?! Maria's willingly pulled herself back! What's the meaning of this?! What were the two of them talking about?!   
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Greatmouth Mob"]  I'm sure our audience is curious about that, too. I've always been an advocate for giving the knights mics—Who doesn't want to listen in on our contestants trash-talking each other?! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="??? "]  Well, the crowd's getting all fired up again.
 </t>
   </si>
   <si>
@@ -1780,7 +1780,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  He stops! He shoots! Szewczyk’s starting his hunt again—Wait! Maria sidestepped the obstacles on the ground, and she’s dashing straight towards Szewczyk!   
+    <t xml:space="preserve">[name="Greatmouth Mob"]  He stops! He shoots! Szewczyk's starting his hunt again—Wait! Maria sidestepped the obstacles on the ground, and she's dashing straight towards Szewczyk!   
 </t>
   </si>
   <si>
@@ -1788,7 +1788,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  Szewczyk! Szewczyk’s not moving an inch! Is he going to take that hit straight on like last time?!   
+    <t xml:space="preserve">[name="Greatmouth Mob"]  Szewczyk! Szewczyk's not moving an inch! Is he going to take that hit straight on like last time?!   
 </t>
   </si>
   <si>
@@ -1800,7 +1800,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Plastic Knight"]  Don’t get cocky!
+    <t xml:space="preserve">[name="Plastic Knight"]  Don't get cocky!
 </t>
   </si>
   <si>
@@ -1808,11 +1808,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Maria"]  It’s suicide for an archer to fight a swordsman head on—I couldn’t have said it better myself!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Plastic Knight"]  (It hasn’t cooled down yet. I need to keep my distance!) 
+    <t xml:space="preserve">[name="Maria"]  It's suicide for an archer to fight a swordsman head on—I couldn't have said it better myself!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Plastic Knight"]  (It hasn't cooled down yet. I need to keep my distance!) 
 </t>
   </si>
   <si>
@@ -1840,7 +1840,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zofia"]  That backhand thrust... It’s the same one that took Margaret to victory.
+    <t xml:space="preserve">[name="Zofia"]  That backhand thrust... It's the same one that took Margaret to victory.
 </t>
   </si>
   <si>
@@ -1860,7 +1860,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  —Wh-Who could’ve seen this coming?!
+    <t xml:space="preserve">[name="Greatmouth Mob"]  —Wh-Who could've seen this coming?!
 </t>
   </si>
   <si>
@@ -1876,7 +1876,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="??? "]  ...Let’s go.
+    <t xml:space="preserve">[name="??? "]  ...Let's go.
 </t>
   </si>
   <si>
@@ -1884,11 +1884,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="??? "]  What’s there to watch? Better go home and fix up your weapon, don’t leave any weaknesses for your opponent to capitalize on.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="??? "]  Hahaha, you’re right about that. Wait up!
+    <t xml:space="preserve">[name="??? "]  What's there to watch? Better go home and fix up your weapon, don't leave any weaknesses for your opponent to capitalize on.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="??? "]  Hahaha, you're right about that. Wait up!
 </t>
   </si>
   <si>
@@ -1904,7 +1904,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  (Hey! This stage’s for commentators! Get off!)   
+    <t xml:space="preserve">[name="Greatmouth Mob"]  (Hey! This stage's for commentators! Get off!)   
 </t>
   </si>
   <si>
@@ -1912,7 +1912,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="??? "]  I am just here to relay Mr. Pavel’s thoughts on the matter...
+    <t xml:space="preserve">[name="??? "]  I am just here to relay Mr. Pavel's thoughts on the matter...
 </t>
   </si>
   <si>
@@ -1944,7 +1944,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  An independent, untitled knight managed to defeat the Roar K.C.’s vanguard! It looks like Maria Nearl’s Originium Arts are a force to be reckoned with! She defeated the 'Plastic' Szewczyk, through pure skill! 
+    <t xml:space="preserve">[name="Greatmouth Mob"]  An independent, untitled knight managed to defeat the Roar K.C.'s vanguard! It looks like Maria Nearl's Originium Arts are a force to be reckoned with! She defeated the 'Plastic' Szewczyk, through pure skill! 
 </t>
   </si>
   <si>
@@ -1952,7 +1952,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Greatmouth Mob"]  In any case! Whatever excuses you’ve got, it’s all too late now! I’m honored to announce the results of the first match of the day!  
+    <t xml:space="preserve">[name="Greatmouth Mob"]  In any case! Whatever excuses you've got, it's all too late now! I'm honored to announce the results of the first match of the day!  
 </t>
   </si>
   <si>
